--- a/Result/29-09-24/HKEXstock_29-09-24period60RS90.xlsx
+++ b/Result/29-09-24/HKEXstock_29-09-24period60RS90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,30 +576,50 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>EPS this Q (%)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>EPS last 1Q (%)</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>EPS last 2Q (%)</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Next Earning Date</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
           <t>Sector</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Trailing EPS</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Forward EPS</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Estimated EPS growth (%)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Earnings this Q (%)</t>
         </is>
@@ -698,24 +718,44 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>2025-03-26 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
           <t>Industrials</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>Conglomerates</t>
         </is>
       </c>
-      <c r="AE2" t="n">
+      <c r="AI2" t="n">
         <v>2.17</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AJ2" t="n">
         <v>2.45</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AK2" t="n">
         <v>12.9</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AL2" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -812,24 +852,44 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>2025-03-17 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
           <t>Consumer Defensive</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>Beverages - Brewers</t>
         </is>
       </c>
-      <c r="AE3" t="n">
+      <c r="AI3" t="n">
         <v>1.78</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AJ3" t="n">
         <v>2.26</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AK3" t="n">
         <v>26.97</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AL3" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -926,24 +986,44 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
           <t>Basic Materials</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>Agricultural Inputs</t>
         </is>
       </c>
-      <c r="AE4" t="n">
+      <c r="AI4" t="n">
         <v>0.11</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AJ4" t="n">
         <v>0.16</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AK4" t="n">
         <v>45.45</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AL4" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -1040,24 +1120,44 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>2024-10-23 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>Financial Data &amp; Stock Exchanges</t>
         </is>
       </c>
-      <c r="AE5" t="n">
+      <c r="AI5" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AJ5" t="n">
         <v>10.33</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AK5" t="n">
         <v>12.28</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AL5" t="n">
         <v>8.6</v>
       </c>
     </row>
@@ -1154,24 +1254,44 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>2024-11-13 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
           <t>Communication Services</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>Internet Content &amp; Information</t>
         </is>
       </c>
-      <c r="AE6" t="n">
+      <c r="AI6" t="n">
         <v>17.64</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AJ6" t="n">
         <v>25.39</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AK6" t="n">
         <v>43.93</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AL6" t="n">
         <v>82</v>
       </c>
     </row>
@@ -1268,24 +1388,44 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>2024-11-19 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
           <t>Consumer Cyclical</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>Travel Services</t>
         </is>
       </c>
-      <c r="AE7" t="n">
+      <c r="AI7" t="n">
         <v>0.8</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AJ7" t="n">
         <v>1.51</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AK7" t="n">
         <v>88.75</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AL7" t="n">
         <v>21.9</v>
       </c>
     </row>
@@ -1382,24 +1522,44 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>2025-03-17 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
           <t>Communication Services</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>Telecom Services</t>
         </is>
       </c>
-      <c r="AE8" t="n">
+      <c r="AI8" t="n">
         <v>0.06</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AJ8" t="n">
         <v>0.08</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AK8" t="n">
         <v>33.33</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AL8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1496,24 +1656,44 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>2025-03-26 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
           <t>Consumer Cyclical</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>Auto Parts</t>
         </is>
       </c>
-      <c r="AE9" t="n">
+      <c r="AI9" t="n">
         <v>1.78</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AJ9" t="n">
         <v>2.25</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AK9" t="n">
         <v>26.4</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AL9" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -1610,24 +1790,44 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
           <t>Technology</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>Consumer Electronics</t>
         </is>
       </c>
-      <c r="AE10" t="n">
+      <c r="AI10" t="n">
         <v>0.45</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AJ10" t="n">
         <v>0.66</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AK10" t="n">
         <v>46.67</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AL10" t="n">
         <v>146.5</v>
       </c>
     </row>
@@ -1724,24 +1924,44 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>2025-03-26 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
           <t>Healthcare</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>Biotechnology</t>
         </is>
       </c>
-      <c r="AE11" t="n">
+      <c r="AI11" t="n">
         <v>0.13</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AJ11" t="n">
         <v>0.17</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AK11" t="n">
         <v>30.77</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AL11" t="n">
         <v>139.7</v>
       </c>
     </row>
@@ -1842,24 +2062,44 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>2024-10-25 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>Banks - Diversified</t>
         </is>
       </c>
-      <c r="AE12" t="n">
+      <c r="AI12" t="n">
         <v>0.8</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AJ12" t="n">
         <v>0.83</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AK12" t="n">
         <v>3.75</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AL12" t="n">
         <v>6.2</v>
       </c>
     </row>
@@ -1956,24 +2196,44 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>2025-03-12 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>Insurance - Life</t>
         </is>
       </c>
-      <c r="AE13" t="n">
+      <c r="AI13" t="n">
         <v>3.36</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AJ13" t="n">
         <v>4.86</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AK13" t="n">
         <v>44.64</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AL13" t="n">
         <v>47.3</v>
       </c>
     </row>
@@ -2070,24 +2330,44 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>2024-10-25 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>Insurance - Life</t>
         </is>
       </c>
-      <c r="AE14" t="n">
+      <c r="AI14" t="n">
         <v>3.48</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AJ14" t="n">
         <v>4.22</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AK14" t="n">
         <v>21.26</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AL14" t="n">
         <v>100.6</v>
       </c>
     </row>
@@ -2188,24 +2468,44 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>Insurance - Property &amp; Casualty</t>
         </is>
       </c>
-      <c r="AE15" t="n">
+      <c r="AI15" t="n">
         <v>0.63</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AJ15" t="n">
         <v>0.7</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AK15" t="n">
         <v>11.11</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AL15" t="n">
         <v>68.2</v>
       </c>
     </row>
@@ -2302,24 +2602,44 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>2024-10-29 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="AE16" t="n">
+      <c r="AI16" t="n">
         <v>0.87</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AJ16" t="n">
         <v>1.06</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AK16" t="n">
         <v>21.84</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AL16" t="n">
         <v>18.6</v>
       </c>
     </row>
@@ -2416,24 +2736,44 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>2025-03-24 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="AE17" t="n">
+      <c r="AI17" t="n">
         <v>0.03</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AJ17" t="n">
         <v>0.09</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AK17" t="n">
         <v>200</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AL17" t="n">
         <v>63.2</v>
       </c>
     </row>
@@ -2534,24 +2874,44 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>2024-11-18 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
           <t>Technology</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>Consumer Electronics</t>
         </is>
       </c>
-      <c r="AE18" t="n">
+      <c r="AI18" t="n">
         <v>0.82</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AJ18" t="n">
         <v>0.87</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AK18" t="n">
         <v>6.1</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AL18" t="n">
         <v>38.9</v>
       </c>
     </row>
@@ -2648,24 +3008,44 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>2024-10-23 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
           <t>Energy</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>Thermal Coal</t>
         </is>
       </c>
-      <c r="AE19" t="n">
+      <c r="AI19" t="n">
         <v>1.46</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AJ19" t="n">
         <v>1.47</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AK19" t="n">
         <v>0.68</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AL19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2762,24 +3142,44 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
           <t>Consumer Cyclical</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>Furnishings, Fixtures &amp; Appliances</t>
         </is>
       </c>
-      <c r="AE20" t="n">
+      <c r="AI20" t="n">
         <v>0.59</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AJ20" t="n">
         <v>0.73</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AK20" t="n">
         <v>23.73</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AL20" t="n">
         <v>41.8</v>
       </c>
     </row>
@@ -2876,24 +3276,44 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>2025-03-24 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
           <t>Consumer Cyclical</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>Leisure</t>
         </is>
       </c>
-      <c r="AE21" t="n">
+      <c r="AI21" t="n">
         <v>5.07</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AJ21" t="n">
         <v>5.36</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AK21" t="n">
         <v>5.72</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AL21" t="n">
         <v>62.6</v>
       </c>
     </row>
@@ -2990,24 +3410,44 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>2024-10-29 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>Insurance - Life</t>
         </is>
       </c>
-      <c r="AE22" t="n">
+      <c r="AI22" t="n">
         <v>5.53</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AJ22" t="n">
         <v>7.43</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AK22" t="n">
         <v>34.36</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AL22" t="n">
         <v>20.4</v>
       </c>
     </row>
@@ -3104,24 +3544,44 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>2025-03-26 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>Banks - Regional</t>
         </is>
       </c>
-      <c r="AE23" t="n">
+      <c r="AI23" t="n">
         <v>3.38</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AJ23" t="n">
         <v>3.46</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AK23" t="n">
         <v>2.37</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AL23" t="n">
         <v>13.3</v>
       </c>
     </row>
@@ -3222,24 +3682,44 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
           <t>Industrials</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>Integrated Freight &amp; Logistics</t>
         </is>
       </c>
-      <c r="AE24" t="n">
+      <c r="AI24" t="n">
         <v>0.62</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AJ24" t="n">
         <v>0.77</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AK24" t="n">
         <v>24.19</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AL24" t="n">
         <v>476</v>
       </c>
     </row>
@@ -3340,24 +3820,44 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>2024-10-24 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>Insurance - Life</t>
         </is>
       </c>
-      <c r="AE25" t="n">
+      <c r="AI25" t="n">
         <v>0.97</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AJ25" t="n">
         <v>1.87</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AK25" t="n">
         <v>92.78</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AL25" t="n">
         <v>48.9</v>
       </c>
     </row>
@@ -3458,24 +3958,44 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>2024-11-26 16:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
           <t>Consumer Cyclical</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>Internet Retail</t>
         </is>
       </c>
-      <c r="AE26" t="n">
+      <c r="AI26" t="n">
         <v>3.85</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AJ26" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AK26" t="n">
         <v>112.99</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AL26" t="n">
         <v>142.2</v>
       </c>
     </row>
@@ -3572,24 +4092,44 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AH27" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="AE27" t="n">
+      <c r="AI27" t="n">
         <v>0.37</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AJ27" t="n">
         <v>0.46</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AK27" t="n">
         <v>24.32</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AL27" t="n">
         <v>158.8</v>
       </c>
     </row>
@@ -3686,24 +4226,44 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AH28" t="inlineStr">
         <is>
           <t>Banks - Diversified</t>
         </is>
       </c>
-      <c r="AE28" t="n">
+      <c r="AI28" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AJ28" t="n">
         <v>0.83</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AK28" t="n">
         <v>2.47</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AL28" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3800,24 +4360,44 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>2024-10-24 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AH29" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="AE29" t="n">
+      <c r="AI29" t="n">
         <v>1.04</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AJ29" t="n">
         <v>1.12</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AK29" t="n">
         <v>7.69</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AL29" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3918,24 +4498,44 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
           <t>Consumer Defensive</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AH30" t="inlineStr">
         <is>
           <t>Packaged Foods</t>
         </is>
       </c>
-      <c r="AE30" t="n">
+      <c r="AI30" t="n">
         <v>0.43</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AJ30" t="n">
         <v>0.47</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AK30" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AL30" t="n">
         <v>10.6</v>
       </c>
     </row>
@@ -4032,24 +4632,44 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>2025-03-18 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
           <t>Healthcare</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AH31" t="inlineStr">
         <is>
           <t>Pharmaceutical Retailers</t>
         </is>
       </c>
-      <c r="AE31" t="n">
+      <c r="AI31" t="n">
         <v>0.93</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AJ31" t="n">
         <v>1.62</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AK31" t="n">
         <v>74.19</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AL31" t="n">
         <v>30.5</v>
       </c>
     </row>
@@ -4146,24 +4766,44 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
           <t>Consumer Cyclical</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AH32" t="inlineStr">
         <is>
           <t>Furnishings, Fixtures &amp; Appliances</t>
         </is>
       </c>
-      <c r="AE32" t="n">
+      <c r="AI32" t="n">
         <v>2.15</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AJ32" t="n">
         <v>2.47</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AK32" t="n">
         <v>14.88</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AL32" t="n">
         <v>13.2</v>
       </c>
     </row>
@@ -4264,24 +4904,44 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>2024-10-28 18:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AH33" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="AE33" t="n">
+      <c r="AI33" t="n">
         <v>0.63</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AJ33" t="n">
         <v>0.74</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AK33" t="n">
         <v>17.46</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AL33" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -4378,24 +5038,44 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>2024-11-13 21:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
           <t>Consumer Cyclical</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr">
+      <c r="AH34" t="inlineStr">
         <is>
           <t>Internet Retail</t>
         </is>
       </c>
-      <c r="AE34" t="n">
+      <c r="AI34" t="n">
         <v>10.97</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AJ34" t="n">
         <v>16.29</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AK34" t="n">
         <v>48.5</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AL34" t="n">
         <v>92.10000000000001</v>
       </c>
     </row>
